--- a/Secpholand/Content/Excels/Reports.xlsx
+++ b/Secpholand/Content/Excels/Reports.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23930"/>
   <workbookPr/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ivan\Desktop\Secpholand\MyProject2\Content\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2B2E0EAE-7D7E-427B-8CE8-CDFC9E03BD66}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="6" xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" firstSheet="6" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Conexiones Dias + Mapa" sheetId="1" r:id="rId1"/>
@@ -20,13 +21,25 @@
     <sheet name="informe ausentes" sheetId="6" r:id="rId6"/>
     <sheet name="informe interaccion" sheetId="8" r:id="rId7"/>
     <sheet name="informe interaccion stand" sheetId="7" r:id="rId8"/>
+    <sheet name="Métricas" sheetId="9" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="191028" concurrentCalc="0"/>
+  <calcPr calcId="191028" calcCompleted="0" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="90">
   <si>
     <t>Fecha in</t>
   </si>
@@ -79,78 +92,78 @@
     <t>Cargo</t>
   </si>
   <si>
+    <t>Lobby</t>
+  </si>
+  <si>
+    <t>Mail</t>
+  </si>
+  <si>
+    <t>Tiene reuniones?</t>
+  </si>
+  <si>
+    <t>Hora de inscripción</t>
+  </si>
+  <si>
+    <t>Descuento</t>
+  </si>
+  <si>
+    <t>Asistió al evento?</t>
+  </si>
+  <si>
+    <t>Goberto</t>
+  </si>
+  <si>
+    <t>false</t>
+  </si>
+  <si>
+    <t>user1@gmail.com</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>CEO</t>
+  </si>
+  <si>
+    <t>Sergio</t>
+  </si>
+  <si>
+    <t>sergiosaez@gmail.com</t>
+  </si>
+  <si>
+    <t>Cluster Manager</t>
+  </si>
+  <si>
+    <t>Elisenda</t>
+  </si>
+  <si>
+    <t>elisendalara@gmail.com</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Gawel</t>
+  </si>
+  <si>
+    <t>gawelwalczak@gmail.com</t>
+  </si>
+  <si>
+    <t>Ivan</t>
+  </si>
+  <si>
+    <t>ivan.anfruns@gmail.com</t>
+  </si>
+  <si>
+    <t>Producer</t>
+  </si>
+  <si>
+    <t>user2@gmail.com</t>
+  </si>
+  <si>
     <t>prueba</t>
   </si>
   <si>
-    <t>Lobby</t>
-  </si>
-  <si>
-    <t>Mail</t>
-  </si>
-  <si>
-    <t>Tiene reuniones?</t>
-  </si>
-  <si>
-    <t>Hora de inscripción</t>
-  </si>
-  <si>
-    <t>Descuento</t>
-  </si>
-  <si>
-    <t>Asistió al evento?</t>
-  </si>
-  <si>
-    <t>Goberto</t>
-  </si>
-  <si>
-    <t>false</t>
-  </si>
-  <si>
-    <t>user1@gmail.com</t>
-  </si>
-  <si>
-    <t>true</t>
-  </si>
-  <si>
-    <t>CEO</t>
-  </si>
-  <si>
-    <t>Sergio</t>
-  </si>
-  <si>
-    <t>sergiosaez@gmail.com</t>
-  </si>
-  <si>
-    <t>Cluster Manager</t>
-  </si>
-  <si>
-    <t>Elisenda</t>
-  </si>
-  <si>
-    <t>elisendalara@gmail.com</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>Gawel</t>
-  </si>
-  <si>
-    <t>gawelwalczak@gmail.com</t>
-  </si>
-  <si>
-    <t>Ivan</t>
-  </si>
-  <si>
-    <t>ivan.anfruns@gmail.com</t>
-  </si>
-  <si>
-    <t>Producer</t>
-  </si>
-  <si>
-    <t>user2@gmail.com</t>
-  </si>
-  <si>
     <t>guillem_1996@hotmail.com</t>
   </si>
   <si>
@@ -262,40 +275,25 @@
     <t>Ofertas trabajo</t>
   </si>
   <si>
+    <t>Interacciones con elementos del stand</t>
+  </si>
+  <si>
+    <t>Tarjetas dejadas</t>
+  </si>
+  <si>
     <t>Elemento de stand</t>
   </si>
   <si>
-    <t>Stand1</t>
-  </si>
-  <si>
-    <t>Design Manager</t>
-  </si>
-  <si>
-    <t>producto1</t>
-  </si>
-  <si>
-    <t>Interacciones con elementos del stand</t>
-  </si>
-  <si>
-    <t>Tarjetas dejadas</t>
-  </si>
-  <si>
-    <t>Stand3</t>
-  </si>
-  <si>
     <t>Stand 5</t>
   </si>
   <si>
+    <t>Goberto Calleja</t>
+  </si>
+  <si>
     <t>Stand 6</t>
   </si>
   <si>
-    <t>Goberto Calleja</t>
-  </si>
-  <si>
-    <t>Guillermo Esteban</t>
-  </si>
-  <si>
-    <t>Carla Barceló</t>
+    <t>AsorCAD counter</t>
   </si>
   <si>
     <t>Pedro Carrillo</t>
@@ -304,79 +302,23 @@
     <t>Juan Camilla</t>
   </si>
   <si>
-    <t>User1</t>
-  </si>
-  <si>
-    <t>None</t>
-  </si>
-  <si>
-    <t>User3</t>
-  </si>
-  <si>
-    <t>user3@gmail.com</t>
-  </si>
-  <si>
-    <t>User2</t>
-  </si>
-  <si>
-    <t>AsorCAD counter</t>
-  </si>
-  <si>
-    <t>addie05l_y517q@deypo.com</t>
+    <t>FPS</t>
+  </si>
+  <si>
+    <t>Map</t>
+  </si>
+  <si>
+    <t>Fecha</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="45">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ h:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="166" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="167" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="168" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="169" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="170" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="171" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="172" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="173" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="174" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="175" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="176" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="177" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="178" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="179" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="180" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="181" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="182" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="183" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="184" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="185" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="186" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="187" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="188" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="189" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="190" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="191" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="192" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="193" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="194" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="195" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="196" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="197" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="198" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="199" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="200" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="201" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="202" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="203" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="204" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="205" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="206" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="207" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="208" formatCode="yyyy-mm-dd h:mm:ss"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="0">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -478,70 +420,32 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFill="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFill="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFill="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="174" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="175" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="182" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="183" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="184" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="185" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="186" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="187" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="188" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="189" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="190" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="191" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="192" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="193" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="194" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="195" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="196" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="197" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="198" fontId="0" fillId="0" borderId="0" applyNumberFormat="1"/>
-    <xf numFmtId="199" fontId="0" fillId="0" borderId="0" applyNumberFormat="1"/>
-    <xf numFmtId="200" fontId="0" fillId="0" borderId="0" applyNumberFormat="1"/>
-    <xf numFmtId="201" fontId="0" fillId="0" borderId="0" applyNumberFormat="1"/>
-    <xf numFmtId="202" fontId="0" fillId="0" borderId="0" applyNumberFormat="1"/>
-    <xf numFmtId="203" fontId="0" fillId="0" borderId="0" applyNumberFormat="1"/>
-    <xf numFmtId="204" fontId="0" fillId="0" borderId="0" applyNumberFormat="1"/>
-    <xf numFmtId="205" fontId="0" fillId="0" borderId="0" applyNumberFormat="1"/>
-    <xf numFmtId="206" fontId="0" fillId="0" borderId="0" applyNumberFormat="1"/>
-    <xf numFmtId="207" fontId="0" fillId="0" borderId="0" applyNumberFormat="1"/>
-    <xf numFmtId="208" fontId="0" fillId="0" borderId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -551,6 +455,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -818,14 +725,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.14062" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="22.5703125" customWidth="1"/>
     <col min="2" max="2" width="24.42578125" customWidth="1"/>
@@ -836,7 +743,7 @@
     <col min="7" max="7" width="36.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -859,11 +766,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="5">
-        <v>44180.4166666667</v>
-      </c>
-      <c r="B2" s="5">
+    <row r="2" spans="1:7">
+      <c r="A2" s="8">
+        <v>44180.416666666701</v>
+      </c>
+      <c r="B2" s="8">
         <v>44180.5</v>
       </c>
       <c r="C2" t="s">
@@ -882,12 +789,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="5">
+    <row r="3" spans="1:7">
+      <c r="A3" s="8">
         <v>44175.5</v>
       </c>
-      <c r="B3" s="5">
-        <v>44175.5916666667</v>
+      <c r="B3" s="8">
+        <v>44175.591666666704</v>
       </c>
       <c r="C3" t="s">
         <v>11</v>
@@ -912,20 +819,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.4258" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="18.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1" s="4" t="s">
         <v>14</v>
       </c>
@@ -949,16 +855,16 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.4258" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="A1" s="4" t="s">
         <v>14</v>
       </c>
@@ -972,8 +878,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="5">
+    <row r="2" spans="1:4">
+      <c r="A2" s="8">
         <v>44175.5</v>
       </c>
       <c r="B2" t="s">
@@ -986,12 +892,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="5">
-        <v>44175.1666666667</v>
+    <row r="3" spans="1:4">
+      <c r="A3" s="8">
+        <v>44175.166666666701</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -1000,14 +906,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.4258" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="19.140625" customWidth="1"/>
     <col min="4" max="4" width="27.5703125" customWidth="1"/>
@@ -1017,7 +923,7 @@
     <col min="8" max="8" width="22.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="30">
       <c r="A1" s="4" t="s">
         <v>2</v>
       </c>
@@ -1031,155 +937,155 @@
         <v>5</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>20</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>16</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="J1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>24</v>
-      </c>
       <c r="B2" t="s">
         <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
         <v>9</v>
       </c>
       <c r="E2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" t="s">
         <v>26</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>27</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" s="8">
+        <v>44181.532638888901</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" t="s">
         <v>28</v>
       </c>
-      <c r="H2" s="5">
-        <v>44181.5326388889</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>29</v>
-      </c>
       <c r="B3" t="s">
         <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
         <v>13</v>
       </c>
       <c r="E3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G3" t="s">
         <v>30</v>
       </c>
-      <c r="F3" t="s">
-        <v>25</v>
-      </c>
-      <c r="G3" t="s">
+      <c r="H3" s="8">
+        <v>44181.532638888901</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" t="s">
         <v>31</v>
       </c>
-      <c r="H3" s="5">
-        <v>44181.5326388889</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>32</v>
-      </c>
       <c r="B4" t="s">
         <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
         <v>13</v>
       </c>
       <c r="E4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" t="s">
         <v>33</v>
       </c>
-      <c r="F4" t="s">
-        <v>25</v>
-      </c>
-      <c r="G4" t="s">
+      <c r="H4" s="8">
+        <v>44181.532638888901</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" t="s">
         <v>34</v>
       </c>
-      <c r="H4" s="5">
-        <v>44181.5326388889</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>35</v>
-      </c>
       <c r="B5" t="s">
         <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
         <v>13</v>
       </c>
       <c r="E5" t="s">
+        <v>35</v>
+      </c>
+      <c r="F5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H5" s="8">
+        <v>44181.532638888901</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" t="s">
         <v>36</v>
       </c>
-      <c r="F5" t="s">
-        <v>25</v>
-      </c>
-      <c r="G5" t="s">
-        <v>34</v>
-      </c>
-      <c r="H5" s="5">
-        <v>44181.5326388889</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>37</v>
-      </c>
       <c r="B6" t="s">
         <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
         <v>13</v>
       </c>
       <c r="E6" t="s">
+        <v>37</v>
+      </c>
+      <c r="F6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G6" t="s">
         <v>38</v>
       </c>
-      <c r="F6" t="s">
-        <v>25</v>
-      </c>
-      <c r="G6" t="s">
-        <v>39</v>
-      </c>
-      <c r="H6" s="5">
-        <v>44181.5326388889</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H6" s="8">
+        <v>44181.532638888901</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -1187,25 +1093,25 @@
         <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
         <v>9</v>
       </c>
       <c r="E7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G7" t="s">
         <v>40</v>
       </c>
-      <c r="F7" t="s">
-        <v>27</v>
-      </c>
-      <c r="G7" t="s">
-        <v>17</v>
-      </c>
-      <c r="H7" s="5">
-        <v>44181.5326388889</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H7" s="8">
+        <v>44181.532638888901</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -1213,7 +1119,7 @@
         <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
         <v>13</v>
@@ -1222,13 +1128,13 @@
         <v>41</v>
       </c>
       <c r="F8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G8" t="s">
         <v>42</v>
       </c>
-      <c r="H8" s="5">
-        <v>44181.5326388889</v>
+      <c r="H8" s="8">
+        <v>44181.532638888901</v>
       </c>
     </row>
   </sheetData>
@@ -1237,19 +1143,19 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+      <selection sqref="A1:I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.4258" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
     <col min="6" max="6" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="30">
       <c r="A1" s="4" t="s">
         <v>2</v>
       </c>
@@ -1278,15 +1184,15 @@
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B2" t="s">
         <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
         <v>9</v>
@@ -1307,7 +1213,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -1315,7 +1221,7 @@
         <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
         <v>9</v>
@@ -1336,7 +1242,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9">
       <c r="A4" t="s">
         <v>53</v>
       </c>
@@ -1344,7 +1250,7 @@
         <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
         <v>9</v>
@@ -1365,15 +1271,15 @@
         <v>52</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B5" t="s">
         <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
         <v>13</v>
@@ -1394,15 +1300,15 @@
         <v>52</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9">
       <c r="A6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B6" t="s">
         <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
         <v>13</v>
@@ -1423,7 +1329,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9">
       <c r="A7" t="s">
         <v>56</v>
       </c>
@@ -1431,7 +1337,7 @@
         <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
         <v>13</v>
@@ -1452,7 +1358,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9">
       <c r="A8" t="s">
         <v>57</v>
       </c>
@@ -1460,7 +1366,7 @@
         <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
         <v>13</v>
@@ -1481,15 +1387,15 @@
         <v>52</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9">
       <c r="A9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B9" t="s">
         <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D9" t="s">
         <v>13</v>
@@ -1510,15 +1416,15 @@
         <v>52</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9">
       <c r="A10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B10" t="s">
         <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D10" t="s">
         <v>13</v>
@@ -1539,7 +1445,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9">
       <c r="A11" t="s">
         <v>58</v>
       </c>
@@ -1547,7 +1453,7 @@
         <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D11" t="s">
         <v>59</v>
@@ -1568,7 +1474,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9">
       <c r="A12" t="s">
         <v>61</v>
       </c>
@@ -1576,7 +1482,7 @@
         <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D12" t="s">
         <v>62</v>
@@ -1597,7 +1503,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9">
       <c r="A13" t="s">
         <v>63</v>
       </c>
@@ -1605,7 +1511,7 @@
         <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
         <v>9</v>
@@ -1626,7 +1532,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9">
       <c r="A14" t="s">
         <v>64</v>
       </c>
@@ -1634,7 +1540,7 @@
         <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D14" t="s">
         <v>9</v>
@@ -1655,7 +1561,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9">
       <c r="A15" t="s">
         <v>11</v>
       </c>
@@ -1663,7 +1569,7 @@
         <v>12</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D15" t="s">
         <v>13</v>
@@ -1684,7 +1590,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9">
       <c r="A16" t="s">
         <v>65</v>
       </c>
@@ -1692,7 +1598,7 @@
         <v>12</v>
       </c>
       <c r="C16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D16" t="s">
         <v>13</v>
@@ -1719,16 +1625,16 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.4258" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="30">
       <c r="A1" s="4" t="s">
         <v>67</v>
       </c>
@@ -1745,11 +1651,11 @@
         <v>5</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="5">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="8">
         <v>44109</v>
       </c>
       <c r="B2" t="s">
@@ -1759,7 +1665,7 @@
         <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E2" t="s">
         <v>13</v>
@@ -1768,8 +1674,8 @@
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="5">
+    <row r="3" spans="1:6">
+      <c r="A3" s="8">
         <v>44102</v>
       </c>
       <c r="B3" t="s">
@@ -1779,7 +1685,7 @@
         <v>8</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E3" t="s">
         <v>62</v>
@@ -1788,8 +1694,8 @@
         <v>68</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="5">
+    <row r="4" spans="1:6">
+      <c r="A4" s="8">
         <v>44099</v>
       </c>
       <c r="B4" t="s">
@@ -1799,7 +1705,7 @@
         <v>8</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E4" t="s">
         <v>59</v>
@@ -1808,8 +1714,8 @@
         <v>69</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="5">
+    <row r="5" spans="1:6">
+      <c r="A5" s="8">
         <v>44099</v>
       </c>
       <c r="B5" t="s">
@@ -1819,7 +1725,7 @@
         <v>8</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E5" t="s">
         <v>13</v>
@@ -1828,48 +1734,48 @@
         <v>70</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="5">
+    <row r="6" spans="1:6">
+      <c r="A6" s="8">
         <v>44099</v>
       </c>
       <c r="B6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C6" t="s">
         <v>8</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E6" t="s">
         <v>13</v>
       </c>
       <c r="F6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="5">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="8">
         <v>44099</v>
       </c>
       <c r="B7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C7" t="s">
         <v>8</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E7" t="s">
         <v>13</v>
       </c>
       <c r="F7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="5">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="8">
         <v>44096</v>
       </c>
       <c r="B8" t="s">
@@ -1879,7 +1785,7 @@
         <v>8</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E8" t="s">
         <v>13</v>
@@ -1894,14 +1800,14 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.4258" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
     <col min="4" max="4" width="24.140625" customWidth="1"/>
     <col min="5" max="5" width="16.7109375" customWidth="1"/>
@@ -1910,7 +1816,7 @@
     <col min="8" max="8" width="41.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="30">
       <c r="A1" s="4" t="s">
         <v>72</v>
       </c>
@@ -1933,18 +1839,18 @@
         <v>75</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
         <v>76</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
-      <c r="D2" s="5">
-        <v>44172.6333333333</v>
+      <c r="D2" s="8">
+        <v>44172.633333333302</v>
       </c>
       <c r="E2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F2" t="s">
         <v>8</v>
@@ -1956,18 +1862,18 @@
         <v>76</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
         <v>77</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
-      <c r="D3" s="5">
-        <v>44172.6333333333</v>
+      <c r="D3" s="8">
+        <v>44172.633333333302</v>
       </c>
       <c r="E3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F3" t="s">
         <v>8</v>
@@ -1985,20 +1891,19 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:Q13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.4258" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="71.5703125" customWidth="1"/>
     <col min="4" max="4" width="18.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16" customWidth="1"/>
-    <col min="7" max="7" width="23.42578125" customWidth="1"/>
-    <col min="8" max="8" width="23.42578125" customWidth="1"/>
+    <col min="7" max="8" width="23.42578125" customWidth="1"/>
     <col min="9" max="9" width="26.28515625" customWidth="1"/>
     <col min="10" max="10" width="24.42578125" customWidth="1"/>
     <col min="11" max="11" width="32.28515625" customWidth="1"/>
@@ -2009,20 +1914,20 @@
     <col min="17" max="17" width="30.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="34.5" x14ac:dyDescent="0.55">
-      <c r="A1" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="M1" s="6" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" ht="30.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" ht="34.5">
+      <c r="A1" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" ht="30.75">
       <c r="C2" s="4" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>73</v>
@@ -2045,7 +1950,7 @@
       <c r="K2" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="M2" s="7" t="s">
+      <c r="M2" s="6" t="s">
         <v>2</v>
       </c>
       <c r="N2" s="1" t="s">
@@ -2058,21 +1963,21 @@
         <v>16</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:17">
       <c r="C3" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D3">
         <v>1</v>
       </c>
-      <c r="F3" s="42">
-        <v>44230.4423611111</v>
+      <c r="F3" s="8">
+        <v>44230.442361111098</v>
       </c>
       <c r="G3" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="H3" t="s">
         <v>8</v>
@@ -2081,13 +1986,13 @@
         <v>9</v>
       </c>
       <c r="J3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K3" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="M3" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="N3" t="s">
         <v>8</v>
@@ -2096,24 +2001,24 @@
         <v>9</v>
       </c>
       <c r="P3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Q3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:17">
       <c r="C4" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D4">
         <v>7</v>
       </c>
-      <c r="F4" s="43">
-        <v>44230.4625</v>
+      <c r="F4" s="8">
+        <v>44230.462500000001</v>
       </c>
       <c r="G4" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="H4" t="s">
         <v>8</v>
@@ -2122,24 +2027,24 @@
         <v>9</v>
       </c>
       <c r="J4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K4" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="5" spans="1:17">
       <c r="C5" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="D5">
         <v>3</v>
       </c>
-      <c r="F5" s="44">
-        <v>44230.4673611111</v>
+      <c r="F5" s="8">
+        <v>44230.467361111099</v>
       </c>
       <c r="G5" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="H5" t="s">
         <v>8</v>
@@ -2148,18 +2053,18 @@
         <v>9</v>
       </c>
       <c r="J5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K5" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6" spans="1:17">
-      <c r="F6" s="45">
+      <c r="F6" s="8">
         <v>44230.6</v>
       </c>
       <c r="G6" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="H6" t="s">
         <v>8</v>
@@ -2168,18 +2073,18 @@
         <v>9</v>
       </c>
       <c r="J6" t="s">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="K6" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="7" spans="1:17">
-      <c r="F7" s="46">
+      <c r="F7" s="8">
         <v>44230.6</v>
       </c>
       <c r="G7" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="H7" t="s">
         <v>8</v>
@@ -2188,18 +2093,18 @@
         <v>9</v>
       </c>
       <c r="J7" t="s">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="K7" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="8" spans="1:17">
-      <c r="F8" s="47">
+      <c r="F8" s="8">
         <v>44230.6</v>
       </c>
       <c r="G8" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="H8" t="s">
         <v>8</v>
@@ -2208,18 +2113,18 @@
         <v>9</v>
       </c>
       <c r="J8" t="s">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="K8" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
+      <c r="F9" s="8">
+        <v>44230.6</v>
+      </c>
+      <c r="G9" t="s">
         <v>86</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
-      <c r="F9" s="48">
-        <v>44230.6</v>
-      </c>
-      <c r="G9" t="s">
-        <v>91</v>
       </c>
       <c r="H9" t="s">
         <v>8</v>
@@ -2228,18 +2133,18 @@
         <v>9</v>
       </c>
       <c r="J9" t="s">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="K9" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
+      <c r="F10" s="8">
+        <v>44230.6</v>
+      </c>
+      <c r="G10" t="s">
         <v>86</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
-      <c r="F10" s="49">
-        <v>44230.6</v>
-      </c>
-      <c r="G10" t="s">
-        <v>91</v>
       </c>
       <c r="H10" t="s">
         <v>8</v>
@@ -2248,18 +2153,18 @@
         <v>9</v>
       </c>
       <c r="J10" t="s">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="K10" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="11" spans="1:17">
-      <c r="F11" s="50">
-        <v>44232.5423611111</v>
+      <c r="F11" s="8">
+        <v>44232.542361111096</v>
       </c>
       <c r="G11" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="H11" t="s">
         <v>8</v>
@@ -2268,18 +2173,18 @@
         <v>9</v>
       </c>
       <c r="J11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K11" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
     </row>
     <row r="12" spans="1:17">
-      <c r="F12" s="51">
-        <v>44232.5423611111</v>
+      <c r="F12" s="8">
+        <v>44232.542361111096</v>
       </c>
       <c r="G12" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="H12" t="s">
         <v>8</v>
@@ -2288,18 +2193,18 @@
         <v>9</v>
       </c>
       <c r="J12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K12" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
     </row>
     <row r="13" spans="1:17">
-      <c r="F13" s="52">
+      <c r="F13" s="8">
         <v>44232.5444444444</v>
       </c>
       <c r="G13" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="H13" t="s">
         <v>8</v>
@@ -2308,14 +2213,48 @@
         <v>9</v>
       </c>
       <c r="J13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K13" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{446C4568-0E0B-42E0-AF95-7443FD2939F9}">
+  <dimension ref="A1:D1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="26" customWidth="1"/>
+    <col min="3" max="3" width="21.7109375" customWidth="1"/>
+    <col min="4" max="4" width="13.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="23.25" customHeight="1">
+      <c r="A1" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>89</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Secpholand/Content/Excels/Reports.xlsx
+++ b/Secpholand/Content/Excels/Reports.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23930"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ivan\Desktop\Secpholand\MyProject2\Content\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2B2E0EAE-7D7E-427B-8CE8-CDFC9E03BD66}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" firstSheet="6" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView activeTab="8" xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240"/>
   </bookViews>
   <sheets>
     <sheet name="Conexiones Dias + Mapa" sheetId="1" r:id="rId1"/>
@@ -23,23 +22,12 @@
     <sheet name="informe interaccion stand" sheetId="7" r:id="rId8"/>
     <sheet name="Métricas" sheetId="9" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="191028" calcCompleted="0" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="191028" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="103">
   <si>
     <t>Fecha in</t>
   </si>
@@ -309,12 +297,51 @@
   </si>
   <si>
     <t>Fecha</t>
+  </si>
+  <si>
+    <t>user10</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>2021-04-07 16:24:46</t>
+  </si>
+  <si>
+    <t>Daniel Carvajal Parejo</t>
+  </si>
+  <si>
+    <t>2021-04-07 14:37:06</t>
+  </si>
+  <si>
+    <t>2021-04-07 14:37:05</t>
+  </si>
+  <si>
+    <t>2021-04-07 14:37:04</t>
+  </si>
+  <si>
+    <t>2021-04-07 11:41:38</t>
+  </si>
+  <si>
+    <t>Antonio Castelo</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>Cafetería</t>
+  </si>
+  <si>
+    <t>Plaza de Secpholand</t>
+  </si>
+  <si>
+    <t>Main menu</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ h:mm:ss"/>
   </numFmts>
@@ -422,28 +449,28 @@
   </cellStyleXfs>
   <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFill="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFill="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFill="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFill="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFill="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -455,9 +482,6 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -725,14 +749,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.14062" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="22.5703125" customWidth="1"/>
     <col min="2" max="2" width="24.42578125" customWidth="1"/>
@@ -768,7 +792,7 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="8">
-        <v>44180.416666666701</v>
+        <v>44180.4166666667</v>
       </c>
       <c r="B2" s="8">
         <v>44180.5</v>
@@ -794,7 +818,7 @@
         <v>44175.5</v>
       </c>
       <c r="B3" s="8">
-        <v>44175.591666666704</v>
+        <v>44175.5916666667</v>
       </c>
       <c r="C3" t="s">
         <v>11</v>
@@ -819,16 +843,17 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.4258" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -855,14 +880,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.4258" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="4" t="s">
@@ -894,7 +919,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="8">
-        <v>44175.166666666701</v>
+        <v>44175.1666666667</v>
       </c>
       <c r="B3" t="s">
         <v>17</v>
@@ -906,14 +931,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.4258" defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="19.140625" customWidth="1"/>
     <col min="4" max="4" width="27.5703125" customWidth="1"/>
@@ -978,7 +1003,7 @@
         <v>27</v>
       </c>
       <c r="H2" s="8">
-        <v>44181.532638888901</v>
+        <v>44181.5326388889</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -1004,7 +1029,7 @@
         <v>30</v>
       </c>
       <c r="H3" s="8">
-        <v>44181.532638888901</v>
+        <v>44181.5326388889</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -1030,7 +1055,7 @@
         <v>33</v>
       </c>
       <c r="H4" s="8">
-        <v>44181.532638888901</v>
+        <v>44181.5326388889</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -1056,7 +1081,7 @@
         <v>33</v>
       </c>
       <c r="H5" s="8">
-        <v>44181.532638888901</v>
+        <v>44181.5326388889</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -1082,7 +1107,7 @@
         <v>38</v>
       </c>
       <c r="H6" s="8">
-        <v>44181.532638888901</v>
+        <v>44181.5326388889</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -1108,7 +1133,7 @@
         <v>40</v>
       </c>
       <c r="H7" s="8">
-        <v>44181.532638888901</v>
+        <v>44181.5326388889</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -1134,7 +1159,7 @@
         <v>42</v>
       </c>
       <c r="H8" s="8">
-        <v>44181.532638888901</v>
+        <v>44181.5326388889</v>
       </c>
     </row>
   </sheetData>
@@ -1143,14 +1168,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.4258" defaultRowHeight="15"/>
   <cols>
     <col min="6" max="6" width="15" customWidth="1"/>
   </cols>
@@ -1625,14 +1650,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.4258" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:6" ht="30">
       <c r="A1" s="4" t="s">
@@ -1800,14 +1825,14 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.4258" defaultRowHeight="15"/>
   <cols>
     <col min="4" max="4" width="24.140625" customWidth="1"/>
     <col min="5" max="5" width="16.7109375" customWidth="1"/>
@@ -1847,7 +1872,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="8">
-        <v>44172.633333333302</v>
+        <v>44172.6333333333</v>
       </c>
       <c r="E2" t="s">
         <v>23</v>
@@ -1870,7 +1895,7 @@
         <v>1</v>
       </c>
       <c r="D3" s="8">
-        <v>44172.633333333302</v>
+        <v>44172.6333333333</v>
       </c>
       <c r="E3" t="s">
         <v>23</v>
@@ -1891,19 +1916,20 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.4258" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="71.5703125" customWidth="1"/>
     <col min="4" max="4" width="18.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16" customWidth="1"/>
-    <col min="7" max="8" width="23.42578125" customWidth="1"/>
+    <col min="7" max="7" width="23.42578125" customWidth="1"/>
+    <col min="8" max="8" width="23.42578125" customWidth="1"/>
     <col min="9" max="9" width="26.28515625" customWidth="1"/>
     <col min="10" max="10" width="24.42578125" customWidth="1"/>
     <col min="11" max="11" width="32.28515625" customWidth="1"/>
@@ -1914,7 +1940,7 @@
     <col min="17" max="17" width="30.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="34.5">
+    <row r="1" spans="1:13" ht="34.5">
       <c r="A1" s="7" t="s">
         <v>8</v>
       </c>
@@ -1974,7 +2000,7 @@
         <v>1</v>
       </c>
       <c r="F3" s="8">
-        <v>44230.442361111098</v>
+        <v>44230.4423611111</v>
       </c>
       <c r="G3" t="s">
         <v>82</v>
@@ -2015,7 +2041,7 @@
         <v>7</v>
       </c>
       <c r="F4" s="8">
-        <v>44230.462500000001</v>
+        <v>44230.4625</v>
       </c>
       <c r="G4" t="s">
         <v>82</v>
@@ -2041,7 +2067,7 @@
         <v>3</v>
       </c>
       <c r="F5" s="8">
-        <v>44230.467361111099</v>
+        <v>44230.4673611111</v>
       </c>
       <c r="G5" t="s">
         <v>82</v>
@@ -2161,7 +2187,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="F11" s="8">
-        <v>44232.542361111096</v>
+        <v>44232.5423611111</v>
       </c>
       <c r="G11" t="s">
         <v>82</v>
@@ -2181,7 +2207,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="F12" s="8">
-        <v>44232.542361111096</v>
+        <v>44232.5423611111</v>
       </c>
       <c r="G12" t="s">
         <v>82</v>
@@ -2226,8 +2252,8 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{446C4568-0E0B-42E0-AF95-7443FD2939F9}">
-  <dimension ref="A1:D1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -2254,6 +2280,20 @@
         <v>89</v>
       </c>
     </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B2">
+        <v>30</v>
+      </c>
+      <c r="C2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D2" t="s">
+        <v>92</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
